--- a/실무_엑셀_예제_파일/Chapter05/05-002.xlsx
+++ b/실무_엑셀_예제_파일/Chapter05/05-002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A705A-15C9-4415-B5D2-DAC77D8D8F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC1BE8-EF03-4924-A620-991B9BE38F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{542BBBC8-9C6D-4BF7-85D6-CBD0BA3A6E06}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{542BBBC8-9C6D-4BF7-85D6-CBD0BA3A6E06}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="5" r:id="rId1"/>
@@ -26,27 +26,17 @@
     <sheet name="11월" sheetId="15" r:id="rId11"/>
     <sheet name="12월" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="39">
   <si>
     <t>월 구매합계</t>
   </si>
@@ -160,6 +150,10 @@
   </si>
   <si>
     <t>2020년 2월 구매처별 주문목록</t>
+  </si>
+  <si>
+    <t>새우마요 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -606,11 +600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659D2E2-0D19-4AC8-830E-89DECDCBD591}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -618,12 +614,12 @@
     <col min="14" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -662,7 +658,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -700,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -738,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -776,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,7 +924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1080,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1156,52 +1152,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
-        <f t="shared" ref="C16:L16" si="0">SUMPRODUCT($B$3:$B$15,C3:C15)</f>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:L17" si="0">SUMPRODUCT($B$3:$B$15,C3:C15)</f>
         <v>1465600</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>1099300</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>828500</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>1198300</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>991500</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>619500</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>663000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="0"/>
         <v>738100</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <f t="shared" si="0"/>
         <v>367500</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="0"/>
         <v>413500</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,11 +1214,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594E91C8-86FF-4E74-8115-5524D636CD35}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -1224,12 +1228,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1761,39 +1765,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1235800</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1215100</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1427200</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1111900</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1243400</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>859600</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>666500</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>1143500</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>359700</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>340800</v>
       </c>
     </row>
@@ -1805,11 +1815,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA983A9E-27BC-4C38-9F01-1B6DA90E7582}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -1817,12 +1829,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1974,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2088,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2354,39 +2366,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1316200</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>977400</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1295400</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1016600</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>860600</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>948300</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>651100</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>892700</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>404300</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>338500</v>
       </c>
     </row>
@@ -2398,11 +2416,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CE2E00-A7C3-45A1-BAC2-9DC4EE480580}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -2410,12 +2430,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2491,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2529,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2567,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2605,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2643,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2681,7 +2701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2719,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2795,7 +2815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2833,7 +2853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2871,7 +2891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2909,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2947,39 +2967,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1144900</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1519100</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1543700</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1254700</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1478300</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>717900</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>662500</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>727800</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>296300</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>380700</v>
       </c>
     </row>
@@ -2991,11 +3017,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E36FBE3-11CA-416A-8B01-BCA3085B6CA7}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -3003,12 +3031,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -3046,7 +3074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3084,7 +3112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3122,7 +3150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3160,7 +3188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3198,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3312,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3350,7 +3378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3388,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3426,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -3464,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -3540,39 +3568,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1152200</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1307800</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1108200</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>826800</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1224800</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>852900</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>602100</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>879700</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>440500</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>411600</v>
       </c>
     </row>
@@ -3584,11 +3618,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6849DAB1-C211-42FF-9EC1-B4CB67983BCA}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -3596,12 +3632,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -3639,7 +3675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3677,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3715,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3753,7 +3789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3829,7 +3865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3867,7 +3903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3905,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3943,7 +3979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3981,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4019,7 +4055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -4057,7 +4093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4095,7 +4131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -4133,39 +4169,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1134500</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1051600</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1165400</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1125300</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1260800</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>780900</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>460000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>854600</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>217000</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>462600</v>
       </c>
     </row>
@@ -4177,11 +4219,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEA1B4D-50BD-4668-B82D-392D3394DA3B}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -4189,12 +4233,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -4232,7 +4276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4270,7 +4314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4308,7 +4352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4346,7 +4390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4384,7 +4428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4422,7 +4466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4460,7 +4504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4536,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -4612,7 +4656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -4650,7 +4694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4688,7 +4732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -4726,39 +4770,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1264300</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1136000</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1243000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1133800</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1110600</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>719500</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>419200</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>990600</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>588200</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>479200</v>
       </c>
     </row>
@@ -4770,11 +4820,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7C711B-AAD4-4431-85CF-ED2EA7794ED7}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -4782,12 +4834,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -4825,7 +4877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4863,7 +4915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4901,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4939,7 +4991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4977,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -5015,7 +5067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5053,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5129,7 +5181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5205,7 +5257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5243,7 +5295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5281,7 +5333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -5319,39 +5371,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1444800</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1330100</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1302600</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>910100</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>887200</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>864100</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>653700</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>869800</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>438800</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>393800</v>
       </c>
     </row>
@@ -5363,11 +5421,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E766B30-54E5-46DF-95A7-5E144856260A}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -5375,12 +5435,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -5418,7 +5478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -5456,7 +5516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -5494,7 +5554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5532,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5570,7 +5630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -5608,7 +5668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5646,7 +5706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5684,7 +5744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5722,7 +5782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5760,7 +5820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -5798,7 +5858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5836,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5874,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -5912,39 +5972,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1077000</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>858700</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1101700</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1222500</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1122700</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>802700</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>655200</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>1024800</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>383200</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>335300</v>
       </c>
     </row>
@@ -5956,11 +6022,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C1EA6C-8FBE-4AE9-ACF2-2EBEA01EC7C6}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -5968,12 +6036,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -6011,7 +6079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -6049,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6087,7 +6155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6125,7 +6193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6163,7 +6231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -6201,7 +6269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -6239,7 +6307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6277,7 +6345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -6315,7 +6383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -6353,7 +6421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -6391,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -6429,7 +6497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -6467,7 +6535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -6505,39 +6573,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1031700</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1125600</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1192500</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1119400</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1222800</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>541900</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>761700</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>777000</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>445300</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>473000</v>
       </c>
     </row>
@@ -6549,11 +6623,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24396327-0F51-491C-8916-70F6A654AFD9}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -6561,12 +6637,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -6604,7 +6680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -6642,7 +6718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6680,7 +6756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6718,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -6756,7 +6832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -6794,7 +6870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -6832,7 +6908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6870,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -6908,7 +6984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -6946,7 +7022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -6984,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -7022,7 +7098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -7060,7 +7136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -7098,39 +7174,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1192900</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1005800</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1292500</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1119800</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1131400</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>912600</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>598300</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>814400</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>421700</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>340500</v>
       </c>
     </row>
@@ -7142,11 +7224,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBC325F-2A22-42CF-8BD1-6AAE2DCB6549}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
@@ -7154,12 +7238,12 @@
     <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -7197,7 +7281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -7235,7 +7319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7273,7 +7357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -7311,7 +7395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -7349,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -7387,7 +7471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -7425,7 +7509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -7463,7 +7547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -7501,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -7539,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -7577,7 +7661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -7615,7 +7699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -7653,7 +7737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -7691,39 +7775,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="3">
         <v>1143700</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>910300</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1170400</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1197400</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>1305100</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>738800</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>515000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>921100</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>477000</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>415200</v>
       </c>
     </row>
